--- a/资产端数据/数据模板与说明（非投资资产）.xlsx
+++ b/资产端数据/数据模板与说明（非投资资产）.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fj004766\Desktop\2022年5月\5月偿二代数据\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\偿付能力数据库\Solvency\资产端数据\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{034BBE05-1928-4F2C-AE88-540448D512F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C737F63A-F6BC-40E8-B1FA-9C282048818D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{98D91BC3-0625-4C27-8B16-F53BA9D6B107}"/>
+    <workbookView xWindow="30465" yWindow="4485" windowWidth="16800" windowHeight="15960" xr2:uid="{98D91BC3-0625-4C27-8B16-F53BA9D6B107}"/>
   </bookViews>
   <sheets>
     <sheet name="填写模板" sheetId="4" r:id="rId1"/>
@@ -21,7 +21,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">填写说明!$A$2:$F$69</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="302">
   <si>
     <t>数据库字段设计与说明</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1178,6 +1178,10 @@
   </si>
   <si>
     <t>18个月以上</t>
+  </si>
+  <si>
+    <t xml:space="preserve">              </t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1188,7 +1192,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="_([$€-2]* #,##0.00_);_([$€-2]* \(#,##0.00\);_([$€-2]* &quot;-&quot;??_)"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1299,6 +1303,22 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -1664,7 +1684,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1797,6 +1817,15 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="57" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1830,13 +1859,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="57" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2156,15 +2182,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D8D21B4-E1C1-4D8F-9D08-D66278306BB6}">
-  <dimension ref="A1:BO24"/>
+  <dimension ref="A1:BO27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="0" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="9" customWidth="1"/>
     <col min="3" max="3" width="17.75" customWidth="1"/>
     <col min="4" max="4" width="20.75" customWidth="1"/>
     <col min="5" max="5" width="0" hidden="1" customWidth="1"/>
@@ -2223,12 +2249,12 @@
       <c r="L1" t="s">
         <v>276</v>
       </c>
-      <c r="AQ1" s="44" t="s">
+      <c r="AQ1" s="47" t="s">
         <v>277</v>
       </c>
-      <c r="AR1" s="44"/>
-      <c r="AS1" s="44"/>
-      <c r="AT1" s="44"/>
+      <c r="AR1" s="47"/>
+      <c r="AS1" s="47"/>
+      <c r="AT1" s="47"/>
       <c r="BK1" t="s">
         <v>275</v>
       </c>
@@ -2460,7 +2486,9 @@
       </c>
       <c r="J3" s="39"/>
       <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
+      <c r="L3" s="58" t="s">
+        <v>292</v>
+      </c>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
@@ -2546,7 +2574,9 @@
       </c>
       <c r="J4" s="39"/>
       <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
+      <c r="L4" s="59" t="s">
+        <v>292</v>
+      </c>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
@@ -2632,7 +2662,9 @@
       </c>
       <c r="J5" s="39"/>
       <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
+      <c r="L5" s="59" t="s">
+        <v>292</v>
+      </c>
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
@@ -3239,7 +3271,7 @@
       <c r="BL12" s="43" t="s">
         <v>299</v>
       </c>
-      <c r="BO12" s="57">
+      <c r="BO12" s="46">
         <v>44136</v>
       </c>
     </row>
@@ -3320,7 +3352,7 @@
       <c r="BJ13" s="3"/>
       <c r="BK13" s="3"/>
       <c r="BL13" s="3"/>
-      <c r="BO13" s="57"/>
+      <c r="BO13" s="46"/>
     </row>
     <row r="14" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
@@ -3399,41 +3431,46 @@
       <c r="BJ14" s="3"/>
       <c r="BK14" s="3"/>
       <c r="BL14" s="3"/>
-      <c r="BO14" s="57"/>
+      <c r="BO14" s="46"/>
     </row>
     <row r="15" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="BO15" s="57"/>
+      <c r="BO15" s="46"/>
     </row>
     <row r="16" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="BO16" s="57"/>
-    </row>
-    <row r="17" spans="9:67" x14ac:dyDescent="0.2">
-      <c r="BO17" s="57"/>
-    </row>
-    <row r="18" spans="9:67" x14ac:dyDescent="0.2">
-      <c r="BO18" s="57"/>
-    </row>
-    <row r="19" spans="9:67" x14ac:dyDescent="0.2">
-      <c r="I19" s="55"/>
-      <c r="J19" s="55"/>
-      <c r="BO19" s="57"/>
-    </row>
-    <row r="20" spans="9:67" x14ac:dyDescent="0.2">
-      <c r="I20" s="56"/>
-      <c r="J20" s="56"/>
-    </row>
-    <row r="21" spans="9:67" x14ac:dyDescent="0.2">
-      <c r="I21" s="56"/>
-      <c r="J21" s="55"/>
-    </row>
-    <row r="22" spans="9:67" x14ac:dyDescent="0.2">
-      <c r="I22" s="55"/>
-    </row>
-    <row r="23" spans="9:67" x14ac:dyDescent="0.2">
-      <c r="I23" s="55"/>
-    </row>
-    <row r="24" spans="9:67" x14ac:dyDescent="0.2">
-      <c r="I24" s="55"/>
+      <c r="BO16" s="46"/>
+    </row>
+    <row r="17" spans="8:67" x14ac:dyDescent="0.2">
+      <c r="BO17" s="46"/>
+    </row>
+    <row r="18" spans="8:67" x14ac:dyDescent="0.2">
+      <c r="BO18" s="46"/>
+    </row>
+    <row r="19" spans="8:67" x14ac:dyDescent="0.2">
+      <c r="I19" s="44"/>
+      <c r="J19" s="44"/>
+      <c r="BO19" s="46"/>
+    </row>
+    <row r="20" spans="8:67" x14ac:dyDescent="0.2">
+      <c r="I20" s="45"/>
+      <c r="J20" s="45"/>
+    </row>
+    <row r="21" spans="8:67" x14ac:dyDescent="0.2">
+      <c r="I21" s="45"/>
+      <c r="J21" s="44"/>
+    </row>
+    <row r="22" spans="8:67" x14ac:dyDescent="0.2">
+      <c r="I22" s="44"/>
+    </row>
+    <row r="23" spans="8:67" x14ac:dyDescent="0.2">
+      <c r="I23" s="44"/>
+    </row>
+    <row r="24" spans="8:67" x14ac:dyDescent="0.2">
+      <c r="I24" s="44"/>
+    </row>
+    <row r="27" spans="8:67" x14ac:dyDescent="0.2">
+      <c r="H27" t="s">
+        <v>301</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3464,14 +3501,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="47"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="50"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
@@ -4838,10 +4875,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="49"/>
+      <c r="B1" s="52"/>
       <c r="C1" s="33"/>
     </row>
     <row r="2" spans="1:3" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -4860,7 +4897,7 @@
       <c r="B3" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="52" t="s">
+      <c r="C3" s="55" t="s">
         <v>249</v>
       </c>
     </row>
@@ -4871,7 +4908,7 @@
       <c r="B4" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="53"/>
+      <c r="C4" s="56"/>
     </row>
     <row r="5" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
@@ -4880,7 +4917,7 @@
       <c r="B5" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="C5" s="53"/>
+      <c r="C5" s="56"/>
     </row>
     <row r="6" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
@@ -4889,7 +4926,7 @@
       <c r="B6" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="53"/>
+      <c r="C6" s="56"/>
     </row>
     <row r="7" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
@@ -4898,7 +4935,7 @@
       <c r="B7" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="C7" s="53"/>
+      <c r="C7" s="56"/>
     </row>
     <row r="8" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
@@ -4907,7 +4944,7 @@
       <c r="B8" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="C8" s="53"/>
+      <c r="C8" s="56"/>
     </row>
     <row r="9" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
@@ -4916,7 +4953,7 @@
       <c r="B9" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="C9" s="53"/>
+      <c r="C9" s="56"/>
     </row>
     <row r="10" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
@@ -4925,7 +4962,7 @@
       <c r="B10" s="25" t="s">
         <v>253</v>
       </c>
-      <c r="C10" s="53"/>
+      <c r="C10" s="56"/>
     </row>
     <row r="11" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
@@ -4934,7 +4971,7 @@
       <c r="B11" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="C11" s="53"/>
+      <c r="C11" s="56"/>
     </row>
     <row r="12" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
@@ -4943,7 +4980,7 @@
       <c r="B12" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="C12" s="53"/>
+      <c r="C12" s="56"/>
     </row>
     <row r="13" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
@@ -4952,7 +4989,7 @@
       <c r="B13" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="C13" s="53"/>
+      <c r="C13" s="56"/>
     </row>
     <row r="14" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
@@ -4961,7 +4998,7 @@
       <c r="B14" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="C14" s="53"/>
+      <c r="C14" s="56"/>
     </row>
     <row r="15" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
@@ -4970,7 +5007,7 @@
       <c r="B15" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="C15" s="53"/>
+      <c r="C15" s="56"/>
     </row>
     <row r="16" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
@@ -4979,7 +5016,7 @@
       <c r="B16" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="C16" s="53"/>
+      <c r="C16" s="56"/>
     </row>
     <row r="17" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
@@ -4988,7 +5025,7 @@
       <c r="B17" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="C17" s="53"/>
+      <c r="C17" s="56"/>
     </row>
     <row r="18" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
@@ -4997,7 +5034,7 @@
       <c r="B18" s="25" t="s">
         <v>258</v>
       </c>
-      <c r="C18" s="53"/>
+      <c r="C18" s="56"/>
     </row>
     <row r="19" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
@@ -5006,7 +5043,7 @@
       <c r="B19" s="25" t="s">
         <v>259</v>
       </c>
-      <c r="C19" s="53"/>
+      <c r="C19" s="56"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="36" t="s">
@@ -5015,7 +5052,7 @@
       <c r="B20" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="C20" s="53"/>
+      <c r="C20" s="56"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
@@ -5024,7 +5061,7 @@
       <c r="B21" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="C21" s="53"/>
+      <c r="C21" s="56"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="s">
@@ -5033,7 +5070,7 @@
       <c r="B22" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="C22" s="53"/>
+      <c r="C22" s="56"/>
     </row>
     <row r="23" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
@@ -5042,7 +5079,7 @@
       <c r="B23" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="C23" s="53"/>
+      <c r="C23" s="56"/>
     </row>
     <row r="24" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="8" t="s">
@@ -5051,7 +5088,7 @@
       <c r="B24" s="25" t="s">
         <v>172</v>
       </c>
-      <c r="C24" s="53"/>
+      <c r="C24" s="56"/>
     </row>
     <row r="25" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="8" t="s">
@@ -5060,7 +5097,7 @@
       <c r="B25" s="25" t="s">
         <v>254</v>
       </c>
-      <c r="C25" s="53"/>
+      <c r="C25" s="56"/>
     </row>
     <row r="26" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="8" t="s">
@@ -5069,7 +5106,7 @@
       <c r="B26" s="25" t="s">
         <v>154</v>
       </c>
-      <c r="C26" s="53"/>
+      <c r="C26" s="56"/>
     </row>
     <row r="27" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="8" t="s">
@@ -5078,7 +5115,7 @@
       <c r="B27" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="C27" s="53"/>
+      <c r="C27" s="56"/>
     </row>
     <row r="28" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="8" t="s">
@@ -5087,7 +5124,7 @@
       <c r="B28" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="C28" s="53"/>
+      <c r="C28" s="56"/>
     </row>
     <row r="29" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="8" t="s">
@@ -5096,7 +5133,7 @@
       <c r="B29" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="C29" s="53"/>
+      <c r="C29" s="56"/>
     </row>
     <row r="30" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="8" t="s">
@@ -5105,7 +5142,7 @@
       <c r="B30" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="C30" s="53"/>
+      <c r="C30" s="56"/>
     </row>
     <row r="31" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="8" t="s">
@@ -5114,7 +5151,7 @@
       <c r="B31" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="C31" s="53"/>
+      <c r="C31" s="56"/>
     </row>
     <row r="32" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="8" t="s">
@@ -5123,7 +5160,7 @@
       <c r="B32" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="C32" s="53"/>
+      <c r="C32" s="56"/>
     </row>
     <row r="33" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="8" t="s">
@@ -5132,7 +5169,7 @@
       <c r="B33" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="C33" s="53"/>
+      <c r="C33" s="56"/>
     </row>
     <row r="34" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="8" t="s">
@@ -5141,7 +5178,7 @@
       <c r="B34" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="C34" s="53"/>
+      <c r="C34" s="56"/>
     </row>
     <row r="35" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="8" t="s">
@@ -5150,7 +5187,7 @@
       <c r="B35" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="C35" s="53"/>
+      <c r="C35" s="56"/>
     </row>
     <row r="36" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="8" t="s">
@@ -5159,7 +5196,7 @@
       <c r="B36" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="C36" s="53"/>
+      <c r="C36" s="56"/>
     </row>
     <row r="37" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="8" t="s">
@@ -5168,7 +5205,7 @@
       <c r="B37" s="25" t="s">
         <v>255</v>
       </c>
-      <c r="C37" s="53"/>
+      <c r="C37" s="56"/>
     </row>
     <row r="38" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="8" t="s">
@@ -5177,7 +5214,7 @@
       <c r="B38" s="25" t="s">
         <v>193</v>
       </c>
-      <c r="C38" s="53"/>
+      <c r="C38" s="56"/>
     </row>
     <row r="39" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="8" t="s">
@@ -5186,7 +5223,7 @@
       <c r="B39" s="25" t="s">
         <v>191</v>
       </c>
-      <c r="C39" s="53"/>
+      <c r="C39" s="56"/>
     </row>
     <row r="40" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="8" t="s">
@@ -5195,7 +5232,7 @@
       <c r="B40" s="25" t="s">
         <v>192</v>
       </c>
-      <c r="C40" s="53"/>
+      <c r="C40" s="56"/>
     </row>
     <row r="41" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="8" t="s">
@@ -5204,7 +5241,7 @@
       <c r="B41" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="C41" s="53"/>
+      <c r="C41" s="56"/>
     </row>
     <row r="42" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="8" t="s">
@@ -5213,7 +5250,7 @@
       <c r="B42" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="C42" s="53"/>
+      <c r="C42" s="56"/>
     </row>
     <row r="43" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="8" t="s">
@@ -5222,7 +5259,7 @@
       <c r="B43" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="C43" s="53"/>
+      <c r="C43" s="56"/>
     </row>
     <row r="44" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="8" t="s">
@@ -5231,7 +5268,7 @@
       <c r="B44" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="C44" s="53"/>
+      <c r="C44" s="56"/>
     </row>
     <row r="45" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="8" t="s">
@@ -5240,7 +5277,7 @@
       <c r="B45" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="C45" s="53"/>
+      <c r="C45" s="56"/>
     </row>
     <row r="46" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="8" t="s">
@@ -5249,7 +5286,7 @@
       <c r="B46" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="C46" s="53"/>
+      <c r="C46" s="56"/>
     </row>
     <row r="47" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="8" t="s">
@@ -5258,7 +5295,7 @@
       <c r="B47" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="C47" s="53"/>
+      <c r="C47" s="56"/>
     </row>
     <row r="48" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="8" t="s">
@@ -5267,7 +5304,7 @@
       <c r="B48" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="C48" s="53"/>
+      <c r="C48" s="56"/>
     </row>
     <row r="49" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="8" t="s">
@@ -5276,7 +5313,7 @@
       <c r="B49" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="C49" s="53"/>
+      <c r="C49" s="56"/>
     </row>
     <row r="50" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="8" t="s">
@@ -5285,7 +5322,7 @@
       <c r="B50" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="C50" s="53"/>
+      <c r="C50" s="56"/>
     </row>
     <row r="51" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" s="8" t="s">
@@ -5294,7 +5331,7 @@
       <c r="B51" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="C51" s="53"/>
+      <c r="C51" s="56"/>
     </row>
     <row r="52" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="8" t="s">
@@ -5303,7 +5340,7 @@
       <c r="B52" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="C52" s="53"/>
+      <c r="C52" s="56"/>
     </row>
     <row r="53" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="8" t="s">
@@ -5312,7 +5349,7 @@
       <c r="B53" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="C53" s="53"/>
+      <c r="C53" s="56"/>
     </row>
     <row r="54" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="8" t="s">
@@ -5321,7 +5358,7 @@
       <c r="B54" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="C54" s="53"/>
+      <c r="C54" s="56"/>
     </row>
     <row r="55" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" s="8" t="s">
@@ -5330,7 +5367,7 @@
       <c r="B55" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="C55" s="53"/>
+      <c r="C55" s="56"/>
     </row>
     <row r="56" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="8" t="s">
@@ -5339,7 +5376,7 @@
       <c r="B56" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="C56" s="53"/>
+      <c r="C56" s="56"/>
     </row>
     <row r="57" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="8" t="s">
@@ -5348,7 +5385,7 @@
       <c r="B57" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="C57" s="53"/>
+      <c r="C57" s="56"/>
     </row>
     <row r="58" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="8" t="s">
@@ -5357,7 +5394,7 @@
       <c r="B58" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="C58" s="53"/>
+      <c r="C58" s="56"/>
     </row>
     <row r="59" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="8" t="s">
@@ -5366,7 +5403,7 @@
       <c r="B59" s="25" t="s">
         <v>100</v>
       </c>
-      <c r="C59" s="53"/>
+      <c r="C59" s="56"/>
     </row>
     <row r="60" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" s="8" t="s">
@@ -5375,7 +5412,7 @@
       <c r="B60" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="C60" s="53"/>
+      <c r="C60" s="56"/>
     </row>
     <row r="61" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" s="8" t="s">
@@ -5384,7 +5421,7 @@
       <c r="B61" s="25" t="s">
         <v>207</v>
       </c>
-      <c r="C61" s="53"/>
+      <c r="C61" s="56"/>
     </row>
     <row r="62" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" s="8" t="s">
@@ -5393,7 +5430,7 @@
       <c r="B62" s="25" t="s">
         <v>109</v>
       </c>
-      <c r="C62" s="53"/>
+      <c r="C62" s="56"/>
     </row>
     <row r="63" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" s="8" t="s">
@@ -5402,7 +5439,7 @@
       <c r="B63" s="25" t="s">
         <v>208</v>
       </c>
-      <c r="C63" s="53"/>
+      <c r="C63" s="56"/>
     </row>
     <row r="64" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" s="8" t="s">
@@ -5411,7 +5448,7 @@
       <c r="B64" s="25" t="s">
         <v>221</v>
       </c>
-      <c r="C64" s="53"/>
+      <c r="C64" s="56"/>
     </row>
     <row r="65" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" s="8" t="s">
@@ -5420,7 +5457,7 @@
       <c r="B65" s="25" t="s">
         <v>222</v>
       </c>
-      <c r="C65" s="53"/>
+      <c r="C65" s="56"/>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" s="36" t="s">
@@ -5429,7 +5466,7 @@
       <c r="B66" s="37" t="s">
         <v>103</v>
       </c>
-      <c r="C66" s="53"/>
+      <c r="C66" s="56"/>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" s="36" t="s">
@@ -5438,7 +5475,7 @@
       <c r="B67" s="37" t="s">
         <v>105</v>
       </c>
-      <c r="C67" s="53"/>
+      <c r="C67" s="56"/>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" s="8" t="s">
@@ -5447,7 +5484,7 @@
       <c r="B68" s="25" t="s">
         <v>106</v>
       </c>
-      <c r="C68" s="53"/>
+      <c r="C68" s="56"/>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" s="36" t="s">
@@ -5456,7 +5493,7 @@
       <c r="B69" s="37" t="s">
         <v>107</v>
       </c>
-      <c r="C69" s="53"/>
+      <c r="C69" s="56"/>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" s="8" t="s">
@@ -5465,7 +5502,7 @@
       <c r="B70" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="C70" s="53"/>
+      <c r="C70" s="56"/>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" s="8" t="s">
@@ -5474,7 +5511,7 @@
       <c r="B71" s="25" t="s">
         <v>109</v>
       </c>
-      <c r="C71" s="53"/>
+      <c r="C71" s="56"/>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" s="36" t="s">
@@ -5483,7 +5520,7 @@
       <c r="B72" s="37" t="s">
         <v>110</v>
       </c>
-      <c r="C72" s="53"/>
+      <c r="C72" s="56"/>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" s="36" t="s">
@@ -5492,7 +5529,7 @@
       <c r="B73" s="37" t="s">
         <v>111</v>
       </c>
-      <c r="C73" s="53"/>
+      <c r="C73" s="56"/>
     </row>
     <row r="74" spans="1:3" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A74" s="10" t="s">
@@ -5501,7 +5538,7 @@
       <c r="B74" s="26" t="s">
         <v>112</v>
       </c>
-      <c r="C74" s="54"/>
+      <c r="C74" s="57"/>
     </row>
     <row r="75" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" s="23" t="s">
@@ -5510,7 +5547,7 @@
       <c r="B75" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="C75" s="50" t="s">
+      <c r="C75" s="53" t="s">
         <v>250</v>
       </c>
     </row>
@@ -5521,7 +5558,7 @@
       <c r="B76" s="27" t="s">
         <v>125</v>
       </c>
-      <c r="C76" s="50"/>
+      <c r="C76" s="53"/>
     </row>
     <row r="77" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" s="23" t="s">
@@ -5530,7 +5567,7 @@
       <c r="B77" s="27" t="s">
         <v>273</v>
       </c>
-      <c r="C77" s="50"/>
+      <c r="C77" s="53"/>
     </row>
     <row r="78" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" s="23" t="s">
@@ -5539,7 +5576,7 @@
       <c r="B78" s="27" t="s">
         <v>130</v>
       </c>
-      <c r="C78" s="50"/>
+      <c r="C78" s="53"/>
     </row>
     <row r="79" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" s="23" t="s">
@@ -5548,7 +5585,7 @@
       <c r="B79" s="27" t="s">
         <v>131</v>
       </c>
-      <c r="C79" s="50"/>
+      <c r="C79" s="53"/>
     </row>
     <row r="80" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" s="23" t="s">
@@ -5557,7 +5594,7 @@
       <c r="B80" s="27" t="s">
         <v>126</v>
       </c>
-      <c r="C80" s="50"/>
+      <c r="C80" s="53"/>
     </row>
     <row r="81" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" s="23" t="s">
@@ -5566,7 +5603,7 @@
       <c r="B81" s="27" t="s">
         <v>127</v>
       </c>
-      <c r="C81" s="50"/>
+      <c r="C81" s="53"/>
     </row>
     <row r="82" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" s="23" t="s">
@@ -5575,7 +5612,7 @@
       <c r="B82" s="27" t="s">
         <v>128</v>
       </c>
-      <c r="C82" s="50"/>
+      <c r="C82" s="53"/>
     </row>
     <row r="83" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" s="23" t="s">
@@ -5584,7 +5621,7 @@
       <c r="B83" s="27" t="s">
         <v>132</v>
       </c>
-      <c r="C83" s="50"/>
+      <c r="C83" s="53"/>
     </row>
     <row r="84" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" s="23" t="s">
@@ -5593,7 +5630,7 @@
       <c r="B84" s="27" t="s">
         <v>133</v>
       </c>
-      <c r="C84" s="50"/>
+      <c r="C84" s="53"/>
     </row>
     <row r="85" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" s="23" t="s">
@@ -5602,7 +5639,7 @@
       <c r="B85" s="27" t="s">
         <v>134</v>
       </c>
-      <c r="C85" s="50"/>
+      <c r="C85" s="53"/>
     </row>
     <row r="86" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" s="23" t="s">
@@ -5611,7 +5648,7 @@
       <c r="B86" s="27" t="s">
         <v>135</v>
       </c>
-      <c r="C86" s="50"/>
+      <c r="C86" s="53"/>
     </row>
     <row r="87" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" s="23" t="s">
@@ -5620,7 +5657,7 @@
       <c r="B87" s="27" t="s">
         <v>136</v>
       </c>
-      <c r="C87" s="50"/>
+      <c r="C87" s="53"/>
     </row>
     <row r="88" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" s="23" t="s">
@@ -5629,7 +5666,7 @@
       <c r="B88" s="27" t="s">
         <v>137</v>
       </c>
-      <c r="C88" s="50"/>
+      <c r="C88" s="53"/>
     </row>
     <row r="89" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" s="23" t="s">
@@ -5638,7 +5675,7 @@
       <c r="B89" s="27" t="s">
         <v>138</v>
       </c>
-      <c r="C89" s="50"/>
+      <c r="C89" s="53"/>
     </row>
     <row r="90" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" s="23" t="s">
@@ -5647,7 +5684,7 @@
       <c r="B90" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="C90" s="50"/>
+      <c r="C90" s="53"/>
     </row>
     <row r="91" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" s="23" t="s">
@@ -5656,7 +5693,7 @@
       <c r="B91" s="27" t="s">
         <v>140</v>
       </c>
-      <c r="C91" s="50"/>
+      <c r="C91" s="53"/>
     </row>
     <row r="92" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" s="23" t="s">
@@ -5665,7 +5702,7 @@
       <c r="B92" s="27" t="s">
         <v>141</v>
       </c>
-      <c r="C92" s="50"/>
+      <c r="C92" s="53"/>
     </row>
     <row r="93" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" s="23" t="s">
@@ -5674,7 +5711,7 @@
       <c r="B93" s="27" t="s">
         <v>142</v>
       </c>
-      <c r="C93" s="50"/>
+      <c r="C93" s="53"/>
     </row>
     <row r="94" spans="1:3" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A94" s="24" t="s">
@@ -5683,7 +5720,7 @@
       <c r="B94" s="28" t="s">
         <v>143</v>
       </c>
-      <c r="C94" s="51"/>
+      <c r="C94" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -5711,10 +5748,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="51" t="s">
         <v>122</v>
       </c>
-      <c r="B1" s="49"/>
+      <c r="B1" s="52"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">

--- a/资产端数据/数据模板与说明（非投资资产）.xlsx
+++ b/资产端数据/数据模板与说明（非投资资产）.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\偿付能力数据库\Solvency\资产端数据\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\偿二代数据库\资产端数据\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C737F63A-F6BC-40E8-B1FA-9C282048818D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C88FEF4-7855-4AB5-A8B1-EB1C5F486469}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30465" yWindow="4485" windowWidth="16800" windowHeight="15960" xr2:uid="{98D91BC3-0625-4C27-8B16-F53BA9D6B107}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{98D91BC3-0625-4C27-8B16-F53BA9D6B107}"/>
   </bookViews>
   <sheets>
     <sheet name="填写模板" sheetId="4" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="306">
   <si>
     <t>数据库字段设计与说明</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1121,66 +1121,83 @@
     <t>投资性不动产物权</t>
   </si>
   <si>
-    <t>投资性房地产</t>
+    <t>成都</t>
+  </si>
+  <si>
+    <t>温州</t>
+  </si>
+  <si>
+    <t>沈阳</t>
+  </si>
+  <si>
+    <t>保单质押贷款</t>
+  </si>
+  <si>
+    <t>万能</t>
+  </si>
+  <si>
+    <t>传统</t>
+  </si>
+  <si>
+    <t>应收保费</t>
+  </si>
+  <si>
+    <t>不大于6个月</t>
+  </si>
+  <si>
+    <t>(6个月，12个月]</t>
+  </si>
+  <si>
+    <t>其他应收及预付款</t>
+  </si>
+  <si>
+    <t>未通过重大保险风险测试的保险业务所对应的应收及预付款</t>
+  </si>
+  <si>
+    <t>预付赔款</t>
+  </si>
+  <si>
+    <t>(12个月，18个月]</t>
+  </si>
+  <si>
+    <t>18个月以上</t>
+  </si>
+  <si>
+    <t xml:space="preserve">              </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>历史成本</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>厚德成都金融广场项目（成都厚德天府置业有限公司）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>温州金融广场项目（温州荣悦置业有限公司）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>温州金融广场项目</t>
   </si>
   <si>
     <t>沈阳国际大厦项目（沈阳广和置业有限公司）</t>
-  </si>
-  <si>
-    <t>成都</t>
-  </si>
-  <si>
-    <t>温州</t>
-  </si>
-  <si>
-    <t>沈阳</t>
-  </si>
-  <si>
-    <t>元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>保单质押贷款</t>
-  </si>
-  <si>
-    <t>万能</t>
-  </si>
-  <si>
-    <t>传统</t>
-  </si>
-  <si>
-    <t>应收保费</t>
-  </si>
-  <si>
-    <t>不大于6个月</t>
-  </si>
-  <si>
-    <t>(6个月，12个月]</t>
-  </si>
-  <si>
-    <t>其他应收及预付款</t>
-  </si>
-  <si>
-    <t>未通过重大保险风险测试的保险业务所对应的应收及预付款</t>
-  </si>
-  <si>
-    <t>预付赔款</t>
-  </si>
-  <si>
-    <t>(12个月，18个月]</t>
-  </si>
-  <si>
-    <t>18个月以上</t>
-  </si>
-  <si>
-    <t xml:space="preserve">              </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沈阳国际大厦项目</t>
+  </si>
+  <si>
+    <t>厚德成都金融广场项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否是享受各级政府保费补贴的业务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账龄</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1320,7 +1337,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1362,6 +1379,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="23">
     <border>
@@ -1684,7 +1707,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1826,6 +1849,12 @@
     <xf numFmtId="57" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1859,10 +1888,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="8" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2185,30 +2220,31 @@
   <dimension ref="A1:BO27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A10" sqref="A10:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="9" customWidth="1"/>
+    <col min="2" max="2" width="9" style="60" customWidth="1"/>
     <col min="3" max="3" width="17.75" customWidth="1"/>
     <col min="4" max="4" width="20.75" customWidth="1"/>
-    <col min="5" max="5" width="0" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="9" customWidth="1"/>
     <col min="6" max="6" width="41.25" customWidth="1"/>
-    <col min="7" max="7" width="0" hidden="1" customWidth="1"/>
-    <col min="8" max="9" width="16.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" customWidth="1"/>
+    <col min="8" max="8" width="16.625" style="60" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="0" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="9" customWidth="1"/>
     <col min="12" max="12" width="5.25" bestFit="1" customWidth="1"/>
     <col min="13" max="14" width="13" hidden="1" customWidth="1"/>
     <col min="15" max="15" width="17.25" hidden="1" customWidth="1"/>
     <col min="16" max="17" width="13" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="0" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="9" hidden="1" customWidth="1"/>
     <col min="19" max="22" width="17.25" hidden="1" customWidth="1"/>
     <col min="23" max="24" width="15.125" hidden="1" customWidth="1"/>
     <col min="25" max="25" width="17.25" hidden="1" customWidth="1"/>
     <col min="26" max="26" width="20.5" hidden="1" customWidth="1"/>
-    <col min="27" max="27" width="0" hidden="1" customWidth="1"/>
+    <col min="27" max="27" width="9" hidden="1" customWidth="1"/>
     <col min="28" max="28" width="33.625" hidden="1" customWidth="1"/>
     <col min="29" max="30" width="12.25" hidden="1" customWidth="1"/>
     <col min="31" max="31" width="21.875" hidden="1" customWidth="1"/>
@@ -2249,12 +2285,12 @@
       <c r="L1" t="s">
         <v>276</v>
       </c>
-      <c r="AQ1" s="47" t="s">
+      <c r="AQ1" s="49" t="s">
         <v>277</v>
       </c>
-      <c r="AR1" s="47"/>
-      <c r="AS1" s="47"/>
-      <c r="AT1" s="47"/>
+      <c r="AR1" s="49"/>
+      <c r="AS1" s="49"/>
+      <c r="AT1" s="49"/>
       <c r="BK1" t="s">
         <v>275</v>
       </c>
@@ -2266,7 +2302,7 @@
       <c r="A2" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="61" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -2284,7 +2320,7 @@
       <c r="G2" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="61" t="s">
         <v>5</v>
       </c>
       <c r="I2" s="3" t="s">
@@ -2450,10 +2486,10 @@
         <v>228</v>
       </c>
       <c r="BK2" s="14" t="s">
-        <v>230</v>
+        <v>304</v>
       </c>
       <c r="BL2" s="14" t="s">
-        <v>233</v>
+        <v>305</v>
       </c>
       <c r="BM2" s="38" t="s">
         <v>236</v>
@@ -2463,10 +2499,12 @@
       </c>
     </row>
     <row r="3" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="B3" s="3"/>
+      <c r="A3" s="47" t="s">
+        <v>303</v>
+      </c>
+      <c r="B3" s="62" t="s">
+        <v>303</v>
+      </c>
       <c r="C3" s="3" t="s">
         <v>280</v>
       </c>
@@ -2475,10 +2513,10 @@
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3" t="s">
-        <v>283</v>
+        <v>298</v>
       </c>
       <c r="G3" s="3"/>
-      <c r="H3" s="39">
+      <c r="H3" s="63">
         <v>3069332000</v>
       </c>
       <c r="I3" s="39">
@@ -2486,8 +2524,8 @@
       </c>
       <c r="J3" s="39"/>
       <c r="K3" s="3"/>
-      <c r="L3" s="58" t="s">
-        <v>292</v>
+      <c r="L3" s="47" t="s">
+        <v>287</v>
       </c>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
@@ -2520,13 +2558,13 @@
       <c r="AO3" s="3"/>
       <c r="AP3" s="3"/>
       <c r="AQ3" s="3" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="AR3" s="40">
         <v>43250</v>
       </c>
-      <c r="AS3" s="3" t="s">
-        <v>289</v>
+      <c r="AS3" s="47" t="s">
+        <v>297</v>
       </c>
       <c r="AT3" s="39">
         <v>3069332000</v>
@@ -2551,10 +2589,12 @@
       <c r="BL3" s="3"/>
     </row>
     <row r="4" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="B4" s="3"/>
+      <c r="A4" s="48" t="s">
+        <v>300</v>
+      </c>
+      <c r="B4" s="62" t="s">
+        <v>300</v>
+      </c>
       <c r="C4" s="3" t="s">
         <v>280</v>
       </c>
@@ -2563,10 +2603,10 @@
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3" t="s">
-        <v>284</v>
+        <v>299</v>
       </c>
       <c r="G4" s="3"/>
-      <c r="H4" s="39">
+      <c r="H4" s="63">
         <v>2400150000</v>
       </c>
       <c r="I4" s="39">
@@ -2574,8 +2614,8 @@
       </c>
       <c r="J4" s="39"/>
       <c r="K4" s="3"/>
-      <c r="L4" s="59" t="s">
-        <v>292</v>
+      <c r="L4" s="48" t="s">
+        <v>287</v>
       </c>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
@@ -2608,13 +2648,13 @@
       <c r="AO4" s="3"/>
       <c r="AP4" s="3"/>
       <c r="AQ4" s="3" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="AR4" s="41">
         <v>43250</v>
       </c>
-      <c r="AS4" s="3" t="s">
-        <v>289</v>
+      <c r="AS4" s="48" t="s">
+        <v>297</v>
       </c>
       <c r="AT4" s="39">
         <v>2400150000</v>
@@ -2639,10 +2679,12 @@
       <c r="BL4" s="3"/>
     </row>
     <row r="5" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="B5" s="3"/>
+      <c r="A5" s="48" t="s">
+        <v>302</v>
+      </c>
+      <c r="B5" s="62" t="s">
+        <v>302</v>
+      </c>
       <c r="C5" s="3" t="s">
         <v>280</v>
       </c>
@@ -2651,10 +2693,10 @@
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3" t="s">
-        <v>285</v>
+        <v>301</v>
       </c>
       <c r="G5" s="3"/>
-      <c r="H5" s="39">
+      <c r="H5" s="63">
         <v>5852000000</v>
       </c>
       <c r="I5" s="39">
@@ -2662,8 +2704,8 @@
       </c>
       <c r="J5" s="39"/>
       <c r="K5" s="3"/>
-      <c r="L5" s="59" t="s">
-        <v>292</v>
+      <c r="L5" s="48" t="s">
+        <v>287</v>
       </c>
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
@@ -2696,13 +2738,13 @@
       <c r="AO5" s="3"/>
       <c r="AP5" s="3"/>
       <c r="AQ5" s="3" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="AR5" s="41">
         <v>43250</v>
       </c>
-      <c r="AS5" s="3" t="s">
-        <v>289</v>
+      <c r="AS5" s="48" t="s">
+        <v>297</v>
       </c>
       <c r="AT5" s="39">
         <v>5852000000</v>
@@ -2728,26 +2770,26 @@
     </row>
     <row r="6" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="B6" s="3"/>
+        <v>288</v>
+      </c>
+      <c r="B6" s="61"/>
       <c r="C6" s="3" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
-      <c r="H6" s="39"/>
+      <c r="H6" s="63"/>
       <c r="I6" s="39">
         <v>119848580.69000004</v>
       </c>
       <c r="J6" s="39"/>
       <c r="K6" s="3"/>
       <c r="L6" s="3" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
@@ -2801,31 +2843,31 @@
       <c r="BJ6" s="3"/>
       <c r="BK6" s="3"/>
       <c r="BL6" s="42" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
     </row>
     <row r="7" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="B7" s="3"/>
+        <v>288</v>
+      </c>
+      <c r="B7" s="61"/>
       <c r="C7" s="3" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="39"/>
+      <c r="H7" s="63"/>
       <c r="I7" s="39">
         <v>22048.009999999977</v>
       </c>
       <c r="J7" s="39"/>
       <c r="K7" s="3"/>
       <c r="L7" s="3" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
@@ -2879,31 +2921,31 @@
       <c r="BJ7" s="3"/>
       <c r="BK7" s="3"/>
       <c r="BL7" s="43" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
     </row>
     <row r="8" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="B8" s="3"/>
+        <v>288</v>
+      </c>
+      <c r="B8" s="61"/>
       <c r="C8" s="3" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
-      <c r="H8" s="39"/>
+      <c r="H8" s="63"/>
       <c r="I8" s="39">
         <v>3527.8499999999985</v>
       </c>
       <c r="J8" s="39"/>
       <c r="K8" s="3"/>
       <c r="L8" s="3" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
@@ -2957,31 +2999,31 @@
       <c r="BJ8" s="3"/>
       <c r="BK8" s="3"/>
       <c r="BL8" s="43" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
     </row>
     <row r="9" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="B9" s="3"/>
+        <v>288</v>
+      </c>
+      <c r="B9" s="61"/>
       <c r="C9" s="3" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
-      <c r="H9" s="39"/>
+      <c r="H9" s="63"/>
       <c r="I9" s="39">
         <v>136998.97000000032</v>
       </c>
       <c r="J9" s="39"/>
       <c r="K9" s="3"/>
       <c r="L9" s="3" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
@@ -3035,31 +3077,31 @@
       <c r="BJ9" s="3"/>
       <c r="BK9" s="3"/>
       <c r="BL9" s="43" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
     </row>
     <row r="10" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="B10" s="3"/>
+        <v>291</v>
+      </c>
+      <c r="B10" s="61"/>
       <c r="C10" s="3" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
-      <c r="H10" s="39"/>
+      <c r="H10" s="63"/>
       <c r="I10" s="39">
         <v>1718000</v>
       </c>
       <c r="J10" s="39"/>
       <c r="K10" s="3"/>
       <c r="L10" s="3" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
@@ -3113,31 +3155,31 @@
       <c r="BJ10" s="3"/>
       <c r="BK10" s="3"/>
       <c r="BL10" s="42" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
     </row>
     <row r="11" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="B11" s="3"/>
+        <v>291</v>
+      </c>
+      <c r="B11" s="61"/>
       <c r="C11" s="3" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
-      <c r="H11" s="39"/>
+      <c r="H11" s="63"/>
       <c r="I11" s="39">
         <v>6000</v>
       </c>
       <c r="J11" s="39"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
@@ -3191,31 +3233,31 @@
       <c r="BJ11" s="3"/>
       <c r="BK11" s="3"/>
       <c r="BL11" s="43" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
     </row>
     <row r="12" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="B12" s="3"/>
+        <v>291</v>
+      </c>
+      <c r="B12" s="61"/>
       <c r="C12" s="3" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
-      <c r="H12" s="39"/>
+      <c r="H12" s="63"/>
       <c r="I12" s="39">
         <v>1579812.5</v>
       </c>
       <c r="J12" s="39"/>
       <c r="K12" s="3"/>
       <c r="L12" s="3" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
@@ -3269,7 +3311,7 @@
       <c r="BJ12" s="3"/>
       <c r="BK12" s="3"/>
       <c r="BL12" s="43" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="BO12" s="46">
         <v>44136</v>
@@ -3277,19 +3319,19 @@
     </row>
     <row r="13" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="B13" s="3"/>
+        <v>285</v>
+      </c>
+      <c r="B13" s="61"/>
       <c r="C13" s="3" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
-      <c r="H13" s="39"/>
+      <c r="H13" s="63"/>
       <c r="I13" s="39">
         <v>681287756.89999998</v>
       </c>
@@ -3298,7 +3340,7 @@
       </c>
       <c r="K13" s="3"/>
       <c r="L13" s="3" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
@@ -3356,19 +3398,19 @@
     </row>
     <row r="14" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="B14" s="3"/>
+        <v>285</v>
+      </c>
+      <c r="B14" s="61"/>
       <c r="C14" s="3" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
-      <c r="H14" s="39"/>
+      <c r="H14" s="63"/>
       <c r="I14" s="39">
         <v>11215609.850000001</v>
       </c>
@@ -3377,7 +3419,7 @@
       </c>
       <c r="K14" s="3"/>
       <c r="L14" s="3" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
@@ -3468,8 +3510,8 @@
       <c r="I24" s="44"/>
     </row>
     <row r="27" spans="8:67" x14ac:dyDescent="0.2">
-      <c r="H27" t="s">
-        <v>301</v>
+      <c r="H27" s="60" t="s">
+        <v>296</v>
       </c>
     </row>
   </sheetData>
@@ -3501,14 +3543,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="50"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="52"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
@@ -4875,10 +4917,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="52"/>
+      <c r="B1" s="54"/>
       <c r="C1" s="33"/>
     </row>
     <row r="2" spans="1:3" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -4897,7 +4939,7 @@
       <c r="B3" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="55" t="s">
+      <c r="C3" s="57" t="s">
         <v>249</v>
       </c>
     </row>
@@ -4908,7 +4950,7 @@
       <c r="B4" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="56"/>
+      <c r="C4" s="58"/>
     </row>
     <row r="5" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
@@ -4917,7 +4959,7 @@
       <c r="B5" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="C5" s="56"/>
+      <c r="C5" s="58"/>
     </row>
     <row r="6" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
@@ -4926,7 +4968,7 @@
       <c r="B6" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="56"/>
+      <c r="C6" s="58"/>
     </row>
     <row r="7" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
@@ -4935,7 +4977,7 @@
       <c r="B7" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="C7" s="56"/>
+      <c r="C7" s="58"/>
     </row>
     <row r="8" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
@@ -4944,7 +4986,7 @@
       <c r="B8" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="C8" s="56"/>
+      <c r="C8" s="58"/>
     </row>
     <row r="9" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
@@ -4953,7 +4995,7 @@
       <c r="B9" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="C9" s="56"/>
+      <c r="C9" s="58"/>
     </row>
     <row r="10" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
@@ -4962,7 +5004,7 @@
       <c r="B10" s="25" t="s">
         <v>253</v>
       </c>
-      <c r="C10" s="56"/>
+      <c r="C10" s="58"/>
     </row>
     <row r="11" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
@@ -4971,7 +5013,7 @@
       <c r="B11" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="C11" s="56"/>
+      <c r="C11" s="58"/>
     </row>
     <row r="12" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
@@ -4980,7 +5022,7 @@
       <c r="B12" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="C12" s="56"/>
+      <c r="C12" s="58"/>
     </row>
     <row r="13" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
@@ -4989,7 +5031,7 @@
       <c r="B13" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="C13" s="56"/>
+      <c r="C13" s="58"/>
     </row>
     <row r="14" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
@@ -4998,7 +5040,7 @@
       <c r="B14" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="C14" s="56"/>
+      <c r="C14" s="58"/>
     </row>
     <row r="15" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
@@ -5007,7 +5049,7 @@
       <c r="B15" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="C15" s="56"/>
+      <c r="C15" s="58"/>
     </row>
     <row r="16" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
@@ -5016,7 +5058,7 @@
       <c r="B16" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="C16" s="56"/>
+      <c r="C16" s="58"/>
     </row>
     <row r="17" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
@@ -5025,7 +5067,7 @@
       <c r="B17" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="C17" s="56"/>
+      <c r="C17" s="58"/>
     </row>
     <row r="18" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
@@ -5034,7 +5076,7 @@
       <c r="B18" s="25" t="s">
         <v>258</v>
       </c>
-      <c r="C18" s="56"/>
+      <c r="C18" s="58"/>
     </row>
     <row r="19" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
@@ -5043,7 +5085,7 @@
       <c r="B19" s="25" t="s">
         <v>259</v>
       </c>
-      <c r="C19" s="56"/>
+      <c r="C19" s="58"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="36" t="s">
@@ -5052,7 +5094,7 @@
       <c r="B20" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="C20" s="56"/>
+      <c r="C20" s="58"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
@@ -5061,7 +5103,7 @@
       <c r="B21" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="C21" s="56"/>
+      <c r="C21" s="58"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="s">
@@ -5070,7 +5112,7 @@
       <c r="B22" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="C22" s="56"/>
+      <c r="C22" s="58"/>
     </row>
     <row r="23" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
@@ -5079,7 +5121,7 @@
       <c r="B23" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="C23" s="56"/>
+      <c r="C23" s="58"/>
     </row>
     <row r="24" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="8" t="s">
@@ -5088,7 +5130,7 @@
       <c r="B24" s="25" t="s">
         <v>172</v>
       </c>
-      <c r="C24" s="56"/>
+      <c r="C24" s="58"/>
     </row>
     <row r="25" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="8" t="s">
@@ -5097,7 +5139,7 @@
       <c r="B25" s="25" t="s">
         <v>254</v>
       </c>
-      <c r="C25" s="56"/>
+      <c r="C25" s="58"/>
     </row>
     <row r="26" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="8" t="s">
@@ -5106,7 +5148,7 @@
       <c r="B26" s="25" t="s">
         <v>154</v>
       </c>
-      <c r="C26" s="56"/>
+      <c r="C26" s="58"/>
     </row>
     <row r="27" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="8" t="s">
@@ -5115,7 +5157,7 @@
       <c r="B27" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="C27" s="56"/>
+      <c r="C27" s="58"/>
     </row>
     <row r="28" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="8" t="s">
@@ -5124,7 +5166,7 @@
       <c r="B28" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="C28" s="56"/>
+      <c r="C28" s="58"/>
     </row>
     <row r="29" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="8" t="s">
@@ -5133,7 +5175,7 @@
       <c r="B29" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="C29" s="56"/>
+      <c r="C29" s="58"/>
     </row>
     <row r="30" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="8" t="s">
@@ -5142,7 +5184,7 @@
       <c r="B30" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="C30" s="56"/>
+      <c r="C30" s="58"/>
     </row>
     <row r="31" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="8" t="s">
@@ -5151,7 +5193,7 @@
       <c r="B31" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="C31" s="56"/>
+      <c r="C31" s="58"/>
     </row>
     <row r="32" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="8" t="s">
@@ -5160,7 +5202,7 @@
       <c r="B32" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="C32" s="56"/>
+      <c r="C32" s="58"/>
     </row>
     <row r="33" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="8" t="s">
@@ -5169,7 +5211,7 @@
       <c r="B33" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="C33" s="56"/>
+      <c r="C33" s="58"/>
     </row>
     <row r="34" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="8" t="s">
@@ -5178,7 +5220,7 @@
       <c r="B34" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="C34" s="56"/>
+      <c r="C34" s="58"/>
     </row>
     <row r="35" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="8" t="s">
@@ -5187,7 +5229,7 @@
       <c r="B35" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="C35" s="56"/>
+      <c r="C35" s="58"/>
     </row>
     <row r="36" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="8" t="s">
@@ -5196,7 +5238,7 @@
       <c r="B36" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="C36" s="56"/>
+      <c r="C36" s="58"/>
     </row>
     <row r="37" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="8" t="s">
@@ -5205,7 +5247,7 @@
       <c r="B37" s="25" t="s">
         <v>255</v>
       </c>
-      <c r="C37" s="56"/>
+      <c r="C37" s="58"/>
     </row>
     <row r="38" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="8" t="s">
@@ -5214,7 +5256,7 @@
       <c r="B38" s="25" t="s">
         <v>193</v>
       </c>
-      <c r="C38" s="56"/>
+      <c r="C38" s="58"/>
     </row>
     <row r="39" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="8" t="s">
@@ -5223,7 +5265,7 @@
       <c r="B39" s="25" t="s">
         <v>191</v>
       </c>
-      <c r="C39" s="56"/>
+      <c r="C39" s="58"/>
     </row>
     <row r="40" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="8" t="s">
@@ -5232,7 +5274,7 @@
       <c r="B40" s="25" t="s">
         <v>192</v>
       </c>
-      <c r="C40" s="56"/>
+      <c r="C40" s="58"/>
     </row>
     <row r="41" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="8" t="s">
@@ -5241,7 +5283,7 @@
       <c r="B41" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="C41" s="56"/>
+      <c r="C41" s="58"/>
     </row>
     <row r="42" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="8" t="s">
@@ -5250,7 +5292,7 @@
       <c r="B42" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="C42" s="56"/>
+      <c r="C42" s="58"/>
     </row>
     <row r="43" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="8" t="s">
@@ -5259,7 +5301,7 @@
       <c r="B43" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="C43" s="56"/>
+      <c r="C43" s="58"/>
     </row>
     <row r="44" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="8" t="s">
@@ -5268,7 +5310,7 @@
       <c r="B44" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="C44" s="56"/>
+      <c r="C44" s="58"/>
     </row>
     <row r="45" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="8" t="s">
@@ -5277,7 +5319,7 @@
       <c r="B45" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="C45" s="56"/>
+      <c r="C45" s="58"/>
     </row>
     <row r="46" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="8" t="s">
@@ -5286,7 +5328,7 @@
       <c r="B46" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="C46" s="56"/>
+      <c r="C46" s="58"/>
     </row>
     <row r="47" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="8" t="s">
@@ -5295,7 +5337,7 @@
       <c r="B47" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="C47" s="56"/>
+      <c r="C47" s="58"/>
     </row>
     <row r="48" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="8" t="s">
@@ -5304,7 +5346,7 @@
       <c r="B48" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="C48" s="56"/>
+      <c r="C48" s="58"/>
     </row>
     <row r="49" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="8" t="s">
@@ -5313,7 +5355,7 @@
       <c r="B49" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="C49" s="56"/>
+      <c r="C49" s="58"/>
     </row>
     <row r="50" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="8" t="s">
@@ -5322,7 +5364,7 @@
       <c r="B50" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="C50" s="56"/>
+      <c r="C50" s="58"/>
     </row>
     <row r="51" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" s="8" t="s">
@@ -5331,7 +5373,7 @@
       <c r="B51" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="C51" s="56"/>
+      <c r="C51" s="58"/>
     </row>
     <row r="52" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="8" t="s">
@@ -5340,7 +5382,7 @@
       <c r="B52" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="C52" s="56"/>
+      <c r="C52" s="58"/>
     </row>
     <row r="53" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="8" t="s">
@@ -5349,7 +5391,7 @@
       <c r="B53" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="C53" s="56"/>
+      <c r="C53" s="58"/>
     </row>
     <row r="54" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="8" t="s">
@@ -5358,7 +5400,7 @@
       <c r="B54" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="C54" s="56"/>
+      <c r="C54" s="58"/>
     </row>
     <row r="55" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" s="8" t="s">
@@ -5367,7 +5409,7 @@
       <c r="B55" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="C55" s="56"/>
+      <c r="C55" s="58"/>
     </row>
     <row r="56" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="8" t="s">
@@ -5376,7 +5418,7 @@
       <c r="B56" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="C56" s="56"/>
+      <c r="C56" s="58"/>
     </row>
     <row r="57" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="8" t="s">
@@ -5385,7 +5427,7 @@
       <c r="B57" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="C57" s="56"/>
+      <c r="C57" s="58"/>
     </row>
     <row r="58" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="8" t="s">
@@ -5394,7 +5436,7 @@
       <c r="B58" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="C58" s="56"/>
+      <c r="C58" s="58"/>
     </row>
     <row r="59" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="8" t="s">
@@ -5403,7 +5445,7 @@
       <c r="B59" s="25" t="s">
         <v>100</v>
       </c>
-      <c r="C59" s="56"/>
+      <c r="C59" s="58"/>
     </row>
     <row r="60" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" s="8" t="s">
@@ -5412,7 +5454,7 @@
       <c r="B60" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="C60" s="56"/>
+      <c r="C60" s="58"/>
     </row>
     <row r="61" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" s="8" t="s">
@@ -5421,7 +5463,7 @@
       <c r="B61" s="25" t="s">
         <v>207</v>
       </c>
-      <c r="C61" s="56"/>
+      <c r="C61" s="58"/>
     </row>
     <row r="62" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" s="8" t="s">
@@ -5430,7 +5472,7 @@
       <c r="B62" s="25" t="s">
         <v>109</v>
       </c>
-      <c r="C62" s="56"/>
+      <c r="C62" s="58"/>
     </row>
     <row r="63" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" s="8" t="s">
@@ -5439,7 +5481,7 @@
       <c r="B63" s="25" t="s">
         <v>208</v>
       </c>
-      <c r="C63" s="56"/>
+      <c r="C63" s="58"/>
     </row>
     <row r="64" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" s="8" t="s">
@@ -5448,7 +5490,7 @@
       <c r="B64" s="25" t="s">
         <v>221</v>
       </c>
-      <c r="C64" s="56"/>
+      <c r="C64" s="58"/>
     </row>
     <row r="65" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" s="8" t="s">
@@ -5457,7 +5499,7 @@
       <c r="B65" s="25" t="s">
         <v>222</v>
       </c>
-      <c r="C65" s="56"/>
+      <c r="C65" s="58"/>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" s="36" t="s">
@@ -5466,7 +5508,7 @@
       <c r="B66" s="37" t="s">
         <v>103</v>
       </c>
-      <c r="C66" s="56"/>
+      <c r="C66" s="58"/>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" s="36" t="s">
@@ -5475,7 +5517,7 @@
       <c r="B67" s="37" t="s">
         <v>105</v>
       </c>
-      <c r="C67" s="56"/>
+      <c r="C67" s="58"/>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" s="8" t="s">
@@ -5484,7 +5526,7 @@
       <c r="B68" s="25" t="s">
         <v>106</v>
       </c>
-      <c r="C68" s="56"/>
+      <c r="C68" s="58"/>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" s="36" t="s">
@@ -5493,7 +5535,7 @@
       <c r="B69" s="37" t="s">
         <v>107</v>
       </c>
-      <c r="C69" s="56"/>
+      <c r="C69" s="58"/>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" s="8" t="s">
@@ -5502,7 +5544,7 @@
       <c r="B70" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="C70" s="56"/>
+      <c r="C70" s="58"/>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" s="8" t="s">
@@ -5511,7 +5553,7 @@
       <c r="B71" s="25" t="s">
         <v>109</v>
       </c>
-      <c r="C71" s="56"/>
+      <c r="C71" s="58"/>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" s="36" t="s">
@@ -5520,7 +5562,7 @@
       <c r="B72" s="37" t="s">
         <v>110</v>
       </c>
-      <c r="C72" s="56"/>
+      <c r="C72" s="58"/>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" s="36" t="s">
@@ -5529,7 +5571,7 @@
       <c r="B73" s="37" t="s">
         <v>111</v>
       </c>
-      <c r="C73" s="56"/>
+      <c r="C73" s="58"/>
     </row>
     <row r="74" spans="1:3" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A74" s="10" t="s">
@@ -5538,7 +5580,7 @@
       <c r="B74" s="26" t="s">
         <v>112</v>
       </c>
-      <c r="C74" s="57"/>
+      <c r="C74" s="59"/>
     </row>
     <row r="75" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" s="23" t="s">
@@ -5547,7 +5589,7 @@
       <c r="B75" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="C75" s="53" t="s">
+      <c r="C75" s="55" t="s">
         <v>250</v>
       </c>
     </row>
@@ -5558,7 +5600,7 @@
       <c r="B76" s="27" t="s">
         <v>125</v>
       </c>
-      <c r="C76" s="53"/>
+      <c r="C76" s="55"/>
     </row>
     <row r="77" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" s="23" t="s">
@@ -5567,7 +5609,7 @@
       <c r="B77" s="27" t="s">
         <v>273</v>
       </c>
-      <c r="C77" s="53"/>
+      <c r="C77" s="55"/>
     </row>
     <row r="78" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" s="23" t="s">
@@ -5576,7 +5618,7 @@
       <c r="B78" s="27" t="s">
         <v>130</v>
       </c>
-      <c r="C78" s="53"/>
+      <c r="C78" s="55"/>
     </row>
     <row r="79" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" s="23" t="s">
@@ -5585,7 +5627,7 @@
       <c r="B79" s="27" t="s">
         <v>131</v>
       </c>
-      <c r="C79" s="53"/>
+      <c r="C79" s="55"/>
     </row>
     <row r="80" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" s="23" t="s">
@@ -5594,7 +5636,7 @@
       <c r="B80" s="27" t="s">
         <v>126</v>
       </c>
-      <c r="C80" s="53"/>
+      <c r="C80" s="55"/>
     </row>
     <row r="81" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" s="23" t="s">
@@ -5603,7 +5645,7 @@
       <c r="B81" s="27" t="s">
         <v>127</v>
       </c>
-      <c r="C81" s="53"/>
+      <c r="C81" s="55"/>
     </row>
     <row r="82" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" s="23" t="s">
@@ -5612,7 +5654,7 @@
       <c r="B82" s="27" t="s">
         <v>128</v>
       </c>
-      <c r="C82" s="53"/>
+      <c r="C82" s="55"/>
     </row>
     <row r="83" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" s="23" t="s">
@@ -5621,7 +5663,7 @@
       <c r="B83" s="27" t="s">
         <v>132</v>
       </c>
-      <c r="C83" s="53"/>
+      <c r="C83" s="55"/>
     </row>
     <row r="84" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" s="23" t="s">
@@ -5630,7 +5672,7 @@
       <c r="B84" s="27" t="s">
         <v>133</v>
       </c>
-      <c r="C84" s="53"/>
+      <c r="C84" s="55"/>
     </row>
     <row r="85" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" s="23" t="s">
@@ -5639,7 +5681,7 @@
       <c r="B85" s="27" t="s">
         <v>134</v>
       </c>
-      <c r="C85" s="53"/>
+      <c r="C85" s="55"/>
     </row>
     <row r="86" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" s="23" t="s">
@@ -5648,7 +5690,7 @@
       <c r="B86" s="27" t="s">
         <v>135</v>
       </c>
-      <c r="C86" s="53"/>
+      <c r="C86" s="55"/>
     </row>
     <row r="87" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" s="23" t="s">
@@ -5657,7 +5699,7 @@
       <c r="B87" s="27" t="s">
         <v>136</v>
       </c>
-      <c r="C87" s="53"/>
+      <c r="C87" s="55"/>
     </row>
     <row r="88" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" s="23" t="s">
@@ -5666,7 +5708,7 @@
       <c r="B88" s="27" t="s">
         <v>137</v>
       </c>
-      <c r="C88" s="53"/>
+      <c r="C88" s="55"/>
     </row>
     <row r="89" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" s="23" t="s">
@@ -5675,7 +5717,7 @@
       <c r="B89" s="27" t="s">
         <v>138</v>
       </c>
-      <c r="C89" s="53"/>
+      <c r="C89" s="55"/>
     </row>
     <row r="90" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" s="23" t="s">
@@ -5684,7 +5726,7 @@
       <c r="B90" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="C90" s="53"/>
+      <c r="C90" s="55"/>
     </row>
     <row r="91" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" s="23" t="s">
@@ -5693,7 +5735,7 @@
       <c r="B91" s="27" t="s">
         <v>140</v>
       </c>
-      <c r="C91" s="53"/>
+      <c r="C91" s="55"/>
     </row>
     <row r="92" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" s="23" t="s">
@@ -5702,7 +5744,7 @@
       <c r="B92" s="27" t="s">
         <v>141</v>
       </c>
-      <c r="C92" s="53"/>
+      <c r="C92" s="55"/>
     </row>
     <row r="93" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" s="23" t="s">
@@ -5711,7 +5753,7 @@
       <c r="B93" s="27" t="s">
         <v>142</v>
       </c>
-      <c r="C93" s="53"/>
+      <c r="C93" s="55"/>
     </row>
     <row r="94" spans="1:3" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A94" s="24" t="s">
@@ -5720,7 +5762,7 @@
       <c r="B94" s="28" t="s">
         <v>143</v>
       </c>
-      <c r="C94" s="54"/>
+      <c r="C94" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -5748,10 +5790,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="53" t="s">
         <v>122</v>
       </c>
-      <c r="B1" s="52"/>
+      <c r="B1" s="54"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
